--- a/excels/material_abilities.xlsx
+++ b/excels/material_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>名字</t>
   </si>
@@ -139,7 +139,7 @@
     <t>abilities/cast/material_abilities/ma_ignite/ma_ignite</t>
   </si>
   <si>
-    <t>duration_factor 0.05</t>
+    <t>duration_factor 0.3</t>
   </si>
   <si>
     <t>damage_factor 10</t>
@@ -155,6 +155,96 @@
   </si>
   <si>
     <t>Hero_SkywrathMage.ArcaneBolt.Cast</t>
+  </si>
+  <si>
+    <t>ma_thunder_pulse</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_thunder_pulse/ma_thunder_pulse</t>
+  </si>
+  <si>
+    <t>damage_interval 1</t>
+  </si>
+  <si>
+    <t>damage_factor 30</t>
+  </si>
+  <si>
+    <t>storm_spirit_electric_vortex</t>
+  </si>
+  <si>
+    <t>ma_magnetism</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_magnetism/ma_magnetism</t>
+  </si>
+  <si>
+    <t>speed_factor 10</t>
+  </si>
+  <si>
+    <t>aura_radius 500</t>
+  </si>
+  <si>
+    <t>enigma_black_hole</t>
+  </si>
+  <si>
+    <t>ma_freeze</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_freeze/ma_freeze</t>
+  </si>
+  <si>
+    <t>move_speed_reduction_factor 1</t>
+  </si>
+  <si>
+    <t>attack_speed_reduction_factor 1</t>
+  </si>
+  <si>
+    <t>ancient_apparition_cold_feet</t>
+  </si>
+  <si>
+    <t>ma_poison</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_poison/ma_poison</t>
+  </si>
+  <si>
+    <t>stack_factor 0.2</t>
+  </si>
+  <si>
+    <t>base_max_stack 5</t>
+  </si>
+  <si>
+    <t>venomancer_poison_sting</t>
+  </si>
+  <si>
+    <t>ma_shehun</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_shehun/ma_shehun</t>
+  </si>
+  <si>
+    <t>decay_interval 3</t>
+  </si>
+  <si>
+    <t>aura_radius 600</t>
+  </si>
+  <si>
+    <t>spell_amplify_per_stack 5</t>
+  </si>
+  <si>
+    <t>death_prophet_spirit_siphon</t>
+  </si>
+  <si>
+    <t>ma_lifesteal</t>
+  </si>
+  <si>
+    <t>abilities/cast/material_abilities/ma_lifesteal/ma_lifesteal</t>
+  </si>
+  <si>
+    <t>lifesteal_percentage_factor 1</t>
+  </si>
+  <si>
+    <t>enchantress_natures_attendants</t>
   </si>
 </sst>
 </file>
@@ -538,7 +628,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -546,7 +636,7 @@
   <cols>
     <col min="1" max="1" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="59.14785714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="37.71928571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
@@ -743,7 +833,7 @@
       </c>
       <c r="AG2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -808,6 +898,392 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
